--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,43 +446,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2308140015</t>
+          <t>GS2308150096</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2308140017</t>
+          <t>GS2308150098</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH238D0017-J022</t>
+          <t>TH238E0079-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2308140018</t>
+          <t>GS2308150099</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH238D0018-J022</t>
+          <t>TH238E0080-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2308140020</t>
+          <t>GS2308150101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA238D0020-J022</t>
+          <t>PA238E0082-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,49 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2308150096</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2308150098</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TH238E0079-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GS2308150099</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TH238E0080-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GS2308150101</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PA238E0082-J022</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,54 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309050065</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FB23950065-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2309050067</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TH23950067-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS2309050068</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TH23950068-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS2309050070</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PA23950070-J022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,48 +446,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050065</t>
+          <t>GS2309050072</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23950065-J022</t>
+          <t>FB23950072-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309050067</t>
+          <t>GS2309050074</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH23950067-J022</t>
+          <t>TH23950074-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309050068</t>
+          <t>GS2309050075</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH23950068-J022</t>
+          <t>TH23950075-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309050070</t>
+          <t>GS2309050077</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA23950070-J022</t>
+          <t>PA23950077-J022</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,50 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GS2309050073A001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23950073</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>YBCL2023090600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GS2309050073A002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23950073</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>YBCL2023090600001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309050072</t>
+          <t>GS2309060004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23950072-J022</t>
+          <t>FB23960004-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309050074</t>
+          <t>GS2309060006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH23950074-J022</t>
+          <t>TH23960006-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309050075</t>
+          <t>GS2309060007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH23950075-J022</t>
+          <t>TH23960007-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309050077</t>
+          <t>GS2309060009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA23950077-J022</t>
+          <t>PA23960009-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309050073A001</t>
+          <t>GS2309060005A002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23950073</t>
+          <t>23960005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023090600001</t>
+          <t>YBCL2023090600002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309050073A002</t>
+          <t>GS2309060005A001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23950073</t>
+          <t>23960005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023090600001</t>
+          <t>YBCL2023090600002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309060004</t>
+          <t>GS2309070036</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23960004-J022</t>
+          <t>FB23970030-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309060006</t>
+          <t>GS2309070038</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH23960006-J022</t>
+          <t>TH23970032-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309060007</t>
+          <t>GS2309070039</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH23960007-J022</t>
+          <t>TH23970033-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309060009</t>
+          <t>GS2309070041</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA23960009-J022</t>
+          <t>PA23970035-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309060005A002</t>
+          <t>GS2309070037A001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23960005</t>
+          <t>23970031</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023090600002</t>
+          <t>YBCL2023090800001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309060005A001</t>
+          <t>GS2309070037A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23960005</t>
+          <t>23970031</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023090600002</t>
+          <t>YBCL2023090800001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309070036</t>
+          <t>GS2307070092A002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23970030-J022</t>
+          <t>23770092</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309070038</t>
+          <t>GS2307070113A002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH23970032-J022</t>
+          <t>23770113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309070039</t>
+          <t>GS2309050010A002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH23970033-J022</t>
+          <t>23950010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309070041</t>
+          <t>GS2309050004A001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA23970035-J022</t>
+          <t>23950004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309070037A001</t>
+          <t>GS2307070137A002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23970031</t>
+          <t>23770137</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +549,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023090800001</t>
+          <t>YBCL2023090800002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309070037A002</t>
+          <t>GS2307080016A001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23970031</t>
+          <t>23780016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +571,8499 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023090800001</t>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GS2307070024A002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23770024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GS2307070055A001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23770055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GS2307070062A001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23770062</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GS2307070134A001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23770134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GS2307070129A001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23770129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GS2307070020A001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23770020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GS2307070118A002</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>23770118</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GS2307070024A001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23770024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GS2307070026A002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23770026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GS2307070105A002</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23770105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GS2309050032A001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23950032</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GS2307070056A002</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23770056</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GS2307070083A001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23770083</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GS2309050022A002</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23950022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GS2307070077A002</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23770077</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GS2307070015A002</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23770015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GS2309040003A002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23940003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GS2307100002A002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23700002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GS2307070037A002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23770037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GS2309050023A002</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23950023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GS2307080003A001</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23780003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GS2307070017A002</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23770017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GS2307100003A001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23700003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GS2307200006A002</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>237K0006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GS2309050008A002</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23950008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GS2307070042A001</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23770042</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GS2307070042A002</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23770042</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GS2309050002A002</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23950002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GS2307070050A002</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23770050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GS2307070122A001</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23770122</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GS2307070102A001</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23770102</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GS2309050008A001</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23950008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GS2307070131A002</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23770131</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GS2307070060A002</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23770060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GS2309050013A002</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23950013</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GS2307070137A001</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23770137</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GS2307070062A002</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>23770062</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GS2307070043A001</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23770043</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GS2307070124A002</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>23770124</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GS2307070068A001</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>23770068</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GS2307070106A002</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>23770106</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GS2307070007A002</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23770007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GS2307080015A002</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>23780015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GS2307070050A001</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>23770050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GS2309050014A001</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>23950014</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GS2307070070A001</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>23770070</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GS2307080013A002</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>23780013</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GS2307070035A002</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>23770035</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GS2309050023A001</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>23950023</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GS2307070019A002</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>23770019</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GS2307070111A001</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>23770111</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GS2309050028A001</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>23950028</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GS2307070032A002</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>23770032</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GS2309050032A002</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>23950032</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GS2307070025A002</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>23770025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GS2307070133A001</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>23770133</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GS2309050029A001</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>23950029</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GS2307070048A001</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>23770048</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GS2307070028A001</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23770028</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GS2307070117A001</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>23770117</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GS2307070007A001</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23770007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GS2307070034A002</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>23770034</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GS2307070082A002</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23770082</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GS2307070136A001</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>23770136</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GS2307070066A002</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>23770066</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GS2309050030A001</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>23950030</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GS2307070065A002</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>23770065</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GS2307070145A001</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>23770145</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GS2307070085A001</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>23770085</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GS2307070029A002</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>23770029</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>GS2307070101A001</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>23770101</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GS2307070127A001</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>23770127</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>GS2307070039A001</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>23770039</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>GS2307070084A002</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>23770084</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>GS2307080007A002</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>23780007</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>GS2309070014A002</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>23970014</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>GS2307080017A002</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>23780017</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>GS2307070060A001</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>23770060</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>GS2307070135A001</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>23770135</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>GS2307080009A002</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>23780009</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>GS2307070012A001</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>23770012</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>GS2307070053A002</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>23770053</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>GS2307070018A002</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>23770018</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>GS2307070092A001</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>23770092</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>GS2307070125A002</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>23770125</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>GS2307070146A001</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>23770146</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>GS2309050025A002</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>23950025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>GS2307070095A001</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>23770095</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>GS2309050017A001</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>23950017</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>GS2307070089A002</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>23770089</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>GS2307080003A002</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>23780003</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GS2307070047A002</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>23770047</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>GS2307070010A002</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>23770010</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>GS2307070004A001</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>23770004</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>GS2307070104A001</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23770104</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>GS2307070013A002</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>23770013</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GS2307070054A002</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23770054</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>GS2307070104A002</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23770104</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>GS2308140034A002</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>238D0034</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>GS2307070048A002</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23770048</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>GS2309050029A002</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>23950029</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>GS2307070049A002</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23770049</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GS2309060003A002</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>23960003</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>GS2307070063A002</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>23770063</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GS2307070094A002</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>23770094</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>GS2308140034A001</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>238D0034</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GS2307070088A002</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>23770088</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>GS2307070120A001</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>23770120</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>GS2307070115A002</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>23770115</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GS2307070061A002</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>23770061</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GS2307070102A002</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>23770102</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GS2307070090A002</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>23770090</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GS2307070013A001</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>23770013</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>GS2307070126A001</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23770126</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GS2307070005A001</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>23770005</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GS2307200006A001</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>237K0006</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GS2307070100A002</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>23770100</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>GS2308140016A002</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>238D0016</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GS2307070014A001</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>23770014</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>GS2307070103A001</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>23770103</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>GS2307070088A001</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>23770088</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>GS2309050019A002</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>23950019</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>GS2307070017A001</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>23770017</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>GS2307070011A002</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>23770011</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>GS2307070065A001</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>23770065</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>GS2309040003A001</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>23940003</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>GS2307070141A002</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>23770141</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GS2307070121A002</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>23770121</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GS2307070099A002</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>23770099</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>GS2308010543A001</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>23810543</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>GS2309050020A002</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>23950020</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>GS2307070093A001</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>23770093</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>GS2307070070A002</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>23770070</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>GS2309050015A001</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>23950015</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>GS2307070016A001</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>23770016</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GS2309050005A001</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>23950005</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>GS2309050025A001</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>23950025</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GS2307070064A002</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>23770064</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>GS2307070019A001</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>23770019</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GS2309050013A001</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>23950013</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GS2309050019A001</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>23950019</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GS2307070010A001</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>23770010</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GS2307070105A001</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>23770105</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GS2309050066A001</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>23950066</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GS2307070073A001</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>23770073</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>GS2309050016A001</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>23950016</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GS2307070012A002</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>23770012</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>GS2307070026A001</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>23770026</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GS2307070109A001</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>23770109</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>GS2309050006A001</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>23950006</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>GS2307070014A002</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>23770014</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>GS2307070119A001</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>23770119</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>GS2307070056A001</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>23770056</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GS2307070126A002</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>23770126</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>GS2307070030A001</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>23770030</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>GS2307070015A001</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>23770015</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>GS2307070078A002</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>23770078</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GS2307070063A001</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>23770063</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>GS2307070031A002</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>23770031</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>GS2307070044A002</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>23770044</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>GS2307070075A002</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>23770075</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>GS2307070124A001</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>23770124</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>GS2307070034A001</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>23770034</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GS2307070080A001</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>23770080</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>GS2309050007A002</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>23950007</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>GS2307070051A001</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>23770051</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>GS2307070107A002</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>23770107</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>GS2307070110A001</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>23770110</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>GS2307070053A001</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>23770053</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>GS2307070140A002</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>23770140</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GS2307070131A001</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>23770131</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GS2307070074A001</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>23770074</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GS2307070144A001</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>23770144</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>GS2309050004A002</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>23950004</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>GS2307070076A001</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>23770076</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GS2309050031A001</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>23950031</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>GS2307070058A001</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>23770058</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>GS2307070127A002</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>23770127</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GS2309050006A002</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>23950006</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>GS2308020002A002</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>23820002</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>GS2307070136A002</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>23770136</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GS2307070115A001</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>23770115</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GS2307070079A002</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>23770079</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>GS2307070069A001</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>23770069</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>GS2307070114A002</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>23770114</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>GS2307070067A002</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>23770067</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>GS2309050011A002</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>23950011</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>GS2307070130A002</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>23770130</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>GS2307070123A001</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>23770123</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>GS2309040002A001</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>23940002</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>GS2307070107A001</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>23770107</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GS2307070108A002</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>23770108</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GS2309080005A002</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>23980005</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>GS2307070046A001</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>23770046</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GS2309050066A002</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>23950066</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GS2307080017A001</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>23780017</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>GS2307070011A001</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>23770011</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>GS2307070098A002</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>23770098</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>GS2307070091A001</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>23770091</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GS2307070110A002</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>23770110</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>GS2309060001A001</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>23960001</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GS2307070133A002</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>23770133</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>GS2309050027A002</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>23950027</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GS2307070079A001</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>23770079</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>GS2307070097A001</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>23770097</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>GS2307070135A002</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>23770135</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>GS2307070071A001</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>23770071</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>GS2307070112A002</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>23770112</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>GS2307070142A002</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>23770142</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>GS2308010543A002</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>23810543</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GS2309050002A001</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>23950002</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>GS2307070040A001</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>23770040</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>GS2307070033A002</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>23770033</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>GS2307070106A001</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>23770106</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>GS2307070084A001</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>23770084</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>GS2309070014A001</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>23970014</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>GS2307070108A001</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>23770108</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>GS2307070146A002</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>23770146</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>GS2307070025A001</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>23770025</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>GS2307070121A001</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>23770121</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>GS2307070036A002</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>23770036</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GS2307070125A001</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>23770125</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GS2307070075A001</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>23770075</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>GS2307070138A001</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>23770138</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>GS2307070142A001</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>23770142</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>GS2309050015A002</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>23950015</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>GS2309050007A001</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>23950007</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>GS2307070022A002</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>23770022</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>GS2307070139A002</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>23770139</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>GS2307070089A001</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>23770089</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>GS2307070074A002</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>23770074</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>GS2307080012A002</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>23780012</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>GS2309050005A002</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>23950005</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>GS2307070038A002</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>23770038</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>GS2307070016A002</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>23770016</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>GS2307070143A002</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>23770143</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GS2307070058A002</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>23770058</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GS2307080014A002</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>23780014</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>GS2307070113A001</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>23770113</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GS2307070076A002</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>23770076</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GS2307070037A001</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>23770037</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GS2307070046A002</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>23770046</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>GS2307070077A001</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>23770077</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>GS2309050012A002</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>23950012</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GS2307070144A002</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>23770144</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>GS2309060001A002</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>23960001</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>GS2309040002A002</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>23940002</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>GS2307070040A002</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>23770040</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>GS2309050012A001</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>23950012</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>GS2307070132A001</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>23770132</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>GS2307070047A001</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>23770047</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>GS2309050024A001</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>23950024</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GS2307070004A002</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>23770004</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GS2307070059A002</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>23770059</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>GS2307070098A001</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>23770098</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>GS2307070005A002</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>23770005</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>GS2307070078A001</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>23770078</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>GS2309080005A001</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>23980005</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>GS2309050016A002</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>23950016</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>GS2307070045A002</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>23770045</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>GS2307080009A001</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>23780009</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>GS2308020002A001</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>23820002</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>GS2309050001A002</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>23950001</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>GS2307070117A002</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>23770117</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>GS2309050014A002</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>23950014</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>GS2309050018A002</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>23950018</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>GS2307070116A001</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>23770116</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>GS2307070128A002</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>23770128</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>GS2307070018A001</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>23770018</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>GS2307070033A001</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>23770033</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>GS2307070130A001</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>23770130</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>GS2307070140A001</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>23770140</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>GS2309050009A002</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>23950009</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GS2307070087A001</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>23770087</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>GS2307070043A002</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>23770043</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>GS2307070021A002</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>23770021</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>GS2307070085A002</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>23770085</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>GS2307070129A002</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>23770129</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>GS2307070009A002</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>23770009</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>GS2307070029A001</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>23770029</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>GS2307070059A001</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>23770059</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>GS2307070068A002</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>23770068</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>GS2307070094A001</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>23770094</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>GS2309050001A001</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>23950001</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>GS2307070114A001</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>23770114</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>GS2307070057A001</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>23770057</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>GS2307070086A001</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>23770086</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>GS2309050020A001</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>23950020</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>GS2309050026A002</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>23950026</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>GS2307070073A002</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>23770073</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>GS2307070145A002</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>23770145</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>GS2307070031A001</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>23770031</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>GS2307070036A001</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>23770036</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>GS2309040004A001</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>23940004</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GS2307070020A002</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>23770020</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>GS2309050003A001</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>23950003</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>GS2309050021A001</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>23950021</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>GS2309050017A002</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>23950017</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>GS2307070051A002</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>23770051</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>GS2307070081A002</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>23770081</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>GS2308140016A001</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>238D0016</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>GS2307100001A002</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>23700001</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>GS2307070112A001</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>23770112</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>GS2307070122A002</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>23770122</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>GS2307070067A001</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>23770067</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>GS2307070055A002</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>23770055</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>GS2307070143A001</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>23770143</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>GS2307070035A001</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>23770035</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>GS2307070116A002</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>23770116</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>GS2307070072A002</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>23770072</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>GS2307070057A002</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>23770057</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>GS2309050027A001</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>23950027</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>GS2309050018A001</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>23950018</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>GS2307070006A002</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>23770006</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>GS2307070096A002</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>23770096</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>GS2307100002A001</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>23700002</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>GS2307070091A002</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>23770091</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>GS2307070006A001</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>23770006</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>GS2307070132A002</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>23770132</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>GS2307070044A001</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>23770044</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>GS2307070123A002</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>23770123</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>GS2307070066A001</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>23770066</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>GS2307070061A001</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>23770061</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>GS2307070041A002</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>23770041</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>GS2309050009A001</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>23950009</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>GS2307070086A002</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>23770086</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>GS2307070009A001</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>23770009</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>GS2309050024A002</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>23950024</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>GS2307070032A001</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>23770032</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>GS2307070111A002</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>23770111</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>GS2309050031A002</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>23950031</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>GS2307070118A001</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>23770118</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>GS2307070064A001</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>23770064</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>GS2307100003A002</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>23700003</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>GS2309050011A001</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>23950011</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>GS2307070139A001</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>23770139</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>GS2307070027A001</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>23770027</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>GS2307070103A002</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>23770103</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>GS2309050003A002</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>23950003</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>GS2307070119A002</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>23770119</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>GS2307070090A001</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>23770090</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>GS2307070045A001</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>23770045</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>GS2307070109A002</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>23770109</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>GS2307070039A002</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>23770039</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>GS2307070081A001</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>23770081</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>GS2307070080A002</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>23770080</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>GS2307070028A002</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>23770028</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>GS2307070054A001</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>23770054</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>GS2307070052A002</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>23770052</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>GS2307070022A001</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>23770022</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>GS2307070099A001</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>23770099</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>GS2309050021A002</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>23950021</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>GS2307070120A002</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>23770120</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>GS2307070100A001</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>23770100</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>GS2307070097A002</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>23770097</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>GS2307070041A001</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>23770041</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>GS2307070030A002</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>23770030</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>GS2307070027A002</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>23770027</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>GS2309050026A001</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>23950026</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>GS2307070023A002</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>23770023</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>GS2307070128A001</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>23770128</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>GS2307070038A001</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>23770038</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>GS2307070049A001</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>23770049</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>GS2307070141A001</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>23770141</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>GS2309050028A002</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>23950028</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>GS2309050010A001</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>23950010</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>GS2307080011A002</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>23780011</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>GS2307070021A001</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>23770021</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>GS2309050022A001</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>23950022</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>GS2309050030A002</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>23950030</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>GS2307070138A002</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>23770138</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>GS2307070095A002</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>23770095</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>GS2307070023A001</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>23770023</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>GS2307070071A002</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>23770071</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>GS2307070093A002</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>23770093</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>GS2307070101A002</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>23770101</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>GS2307070096A001</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>23770096</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>GS2307070134A002</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>23770134</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>GS2307100001A001</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>23700001</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>GS2307070082A001</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>23770082</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>GS2307070052A001</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>23770052</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>GS2307070069A002</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>23770069</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>GS2307070083A002</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>23770083</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>GS2309040004A002</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>23940004</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>GS2307070087A002</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>23770087</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>GS2307070072A001</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>23770072</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>YBCL2023090800002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,98 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2309080092</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FB23980092-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2309080094</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TH23980094-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS2309080095</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TH23980095-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS2309080097</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PA23980097-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GS2309080093A001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23980093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>YBCL2023090800004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GS2309080093A002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23980093</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>YBCL2023090800004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309080092</t>
+          <t>GS2309110001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB23980092-J022</t>
+          <t>FB239A0001-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309080094</t>
+          <t>GS2309110003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH23980094-J022</t>
+          <t>TH239A0003-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309080095</t>
+          <t>GS2309110004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH23980095-J022</t>
+          <t>TH239A0004-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309080097</t>
+          <t>GS2309110006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA23980097-J022</t>
+          <t>PA239A0006-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309080093A001</t>
+          <t>GS2309110002A001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23980093</t>
+          <t>239A0002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023090800004</t>
+          <t>YBCL2023091100001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309080093A002</t>
+          <t>GS2309110002A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23980093</t>
+          <t>239A0002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023090800004</t>
+          <t>YBCL2023091100001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309110001</t>
+          <t>GS2309120057</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239A0001-J022</t>
+          <t>FB239B0057-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309110003</t>
+          <t>GS2309120059</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH239A0003-J022</t>
+          <t>TH239B0059-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309110004</t>
+          <t>GS2309120060</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH239A0004-J022</t>
+          <t>TH239B0060-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309110006</t>
+          <t>GS2309120062</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA239A0006-J022</t>
+          <t>PA239B0062-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309110002A001</t>
+          <t>GS2309120058A001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239A0002</t>
+          <t>239B0058</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023091100001</t>
+          <t>YBCL2023091200002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309110002A002</t>
+          <t>GS2309120058A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239A0002</t>
+          <t>239B0058</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023091100001</t>
+          <t>YBCL2023091200002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309120057</t>
+          <t>GS2309150034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239B0057-J022</t>
+          <t>FB239E0034-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309120059</t>
+          <t>GS2309150036</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH239B0059-J022</t>
+          <t>TH239E0036-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309120060</t>
+          <t>GS2309150037</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH239B0060-J022</t>
+          <t>TH239E0037-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309120062</t>
+          <t>GS2309150039</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA239B0062-J022</t>
+          <t>PA239E0039-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309120058A001</t>
+          <t>GS2309150035A001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239B0058</t>
+          <t>239E0035</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023091200002</t>
+          <t>YBCL2023091500003</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309120058A002</t>
+          <t>GS2309150035A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239B0058</t>
+          <t>239E0035</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023091200002</t>
+          <t>YBCL2023091500003</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309150034</t>
+          <t>GS2309180002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239E0034-J022</t>
+          <t>FB239H0002-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309150036</t>
+          <t>GS2309180004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH239E0036-J022</t>
+          <t>TH239H0004-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309150037</t>
+          <t>GS2309180005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH239E0037-J022</t>
+          <t>TH239H0005-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309150039</t>
+          <t>GS2309180007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA239E0039-J022</t>
+          <t>PA239H0007-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309150035A001</t>
+          <t>GS2309180003A001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239E0035</t>
+          <t>239H0003</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023091500003</t>
+          <t>YBCL2023091800001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309150035A002</t>
+          <t>GS2309180003A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239E0035</t>
+          <t>239H0003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023091500003</t>
+          <t>YBCL2023091800001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2309180002</t>
+          <t>GS2401150005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB239H0002-J022</t>
+          <t>FB241E0005-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2309180004</t>
+          <t>GS2401150007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH239H0004-J022</t>
+          <t>TH241E0007-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2309180005</t>
+          <t>GS2401150008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH239H0005-J022</t>
+          <t>TH241E0008-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2309180007</t>
+          <t>GS2401150010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA239H0007-J022</t>
+          <t>PA241E0010-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2309180003A001</t>
+          <t>GS2401150006A001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>239H0003</t>
+          <t>241E0006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2023091800001</t>
+          <t>YBCL2024011500001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2309180003A002</t>
+          <t>GS2401150006A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239H0003</t>
+          <t>241E0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023091800001</t>
+          <t>YBCL2024011500001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -1,34 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D45710B-5246-4CA3-B066-709714F2C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>实验室号</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>FB230S0044-J022</t>
+  </si>
+  <si>
+    <t>TH230S0046-J022</t>
+  </si>
+  <si>
+    <t>TH230S0047-J022</t>
+  </si>
+  <si>
+    <t>PA230S0049-J022</t>
+  </si>
+  <si>
+    <t>230S0045</t>
+  </si>
+  <si>
+    <t>核酸提取</t>
+  </si>
+  <si>
+    <t>YBCL2023102700007</t>
+  </si>
+  <si>
+    <t>GS2311170014</t>
+  </si>
+  <si>
+    <t>GS2311170016</t>
+  </si>
+  <si>
+    <t>GS2311170017</t>
+  </si>
+  <si>
+    <t>GS2311170019</t>
+  </si>
+  <si>
+    <t>GS2311170015A002</t>
+  </si>
+  <si>
+    <t>GS2311170015A001</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +120,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,134 +424,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>实验室号</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2401150005</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FB241E0005-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2401150007</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TH241E0007-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GS2401150008</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TH241E0008-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GS2401150010</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PA241E0010-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GS2401150006A001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>241E0006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>YBCL2024011500001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GS2401150006A002</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>241E0006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>YBCL2024011500001</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D45710B-5246-4CA3-B066-709714F2C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4AE03C-C698-40F5-80AA-D5283AA9589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>lims号</t>
   </si>
@@ -40,44 +40,23 @@
     <t>TH230S0046-J022</t>
   </si>
   <si>
-    <t>TH230S0047-J022</t>
-  </si>
-  <si>
     <t>PA230S0049-J022</t>
   </si>
   <si>
-    <t>230S0045</t>
-  </si>
-  <si>
-    <t>核酸提取</t>
-  </si>
-  <si>
-    <t>YBCL2023102700007</t>
-  </si>
-  <si>
-    <t>GS2311170014</t>
-  </si>
-  <si>
-    <t>GS2311170016</t>
-  </si>
-  <si>
-    <t>GS2311170017</t>
-  </si>
-  <si>
-    <t>GS2311170019</t>
-  </si>
-  <si>
-    <t>GS2311170015A002</t>
-  </si>
-  <si>
-    <t>GS2311170015A001</t>
+    <t>GS2312150003</t>
+  </si>
+  <si>
+    <t>GS2312150004</t>
+  </si>
+  <si>
+    <t>GS2312150006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +77,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -425,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,65 +436,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -1,93 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4AE03C-C698-40F5-80AA-D5283AA9589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>FB230S0044-J022</t>
-  </si>
-  <si>
-    <t>TH230S0046-J022</t>
-  </si>
-  <si>
-    <t>PA230S0049-J022</t>
-  </si>
-  <si>
-    <t>GS2312150003</t>
-  </si>
-  <si>
-    <t>GS2312150004</t>
-  </si>
-  <si>
-    <t>GS2312150006</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,24 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,61 +408,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="45.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2401160007</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FB241F0007-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2401160009</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TH241F0009-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS2401160010</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TH241F0010-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS2401160012</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PA241F0012-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GS2401160008A001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241F0008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>YBCL2024011600001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GS2401160008A002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241F0008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>YBCL2024011600001</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -1,34 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03D55A-BEA2-4FE1-874A-9CE21010A1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>lims号</t>
+  </si>
+  <si>
+    <t>实验室号</t>
+  </si>
+  <si>
+    <t>当前节点</t>
+  </si>
+  <si>
+    <t>任务单号</t>
+  </si>
+  <si>
+    <t>FB241F0007-J022</t>
+  </si>
+  <si>
+    <t>TH241F0009-J022</t>
+  </si>
+  <si>
+    <t>TH241F0010-J022</t>
+  </si>
+  <si>
+    <t>PA241F0012-J022</t>
+  </si>
+  <si>
+    <t>241F0008</t>
+  </si>
+  <si>
+    <t>核酸提取</t>
+  </si>
+  <si>
+    <t>YBCL2024011600001</t>
+  </si>
+  <si>
+    <t>GS2401100001</t>
+  </si>
+  <si>
+    <t>GS2302150002</t>
+  </si>
+  <si>
+    <t>GS2401160005</t>
+  </si>
+  <si>
+    <t>GS2401160006</t>
+  </si>
+  <si>
+    <t>GS2312220002</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +116,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,134 +420,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>lims号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>实验室号</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>当前节点</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务单号</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GS2401160007</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FB241F0007-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GS2401160009</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TH241F0009-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GS2401160010</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TH241F0010-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GS2401160012</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PA241F0012-J022</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GS2401160008A001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>241F0008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>YBCL2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GS2401160008A002</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>241F0008</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>YBCL2024011600001</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -1,104 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03D55A-BEA2-4FE1-874A-9CE21010A1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>lims号</t>
-  </si>
-  <si>
-    <t>实验室号</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>FB241F0007-J022</t>
-  </si>
-  <si>
-    <t>TH241F0009-J022</t>
-  </si>
-  <si>
-    <t>TH241F0010-J022</t>
-  </si>
-  <si>
-    <t>PA241F0012-J022</t>
-  </si>
-  <si>
-    <t>241F0008</t>
-  </si>
-  <si>
-    <t>核酸提取</t>
-  </si>
-  <si>
-    <t>YBCL2024011600001</t>
-  </si>
-  <si>
-    <t>GS2401100001</t>
-  </si>
-  <si>
-    <t>GS2302150002</t>
-  </si>
-  <si>
-    <t>GS2401160005</t>
-  </si>
-  <si>
-    <t>GS2401160006</t>
-  </si>
-  <si>
-    <t>GS2312220002</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,80 +408,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实验室号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2404290625</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FB244U0625-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2404290627</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TH244U0627-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS2404290628</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TH244U0628-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS2404290630</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PA244U0630-J022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GS2404290626A002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>244U0626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>YBCL2024042900001</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GS2404290626A001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>244U0626</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>YBCL2024042900001</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/hstq_id_lims.xlsx
+++ b/data/excel_doc/hstq_id_lims.xlsx
@@ -446,60 +446,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GS2404290625</t>
+          <t>GS2405210045</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB244U0625-J022</t>
+          <t>FB245L0045-J022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GS2404290627</t>
+          <t>GS2405210047</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TH244U0627-J022</t>
+          <t>TH245L0047-J022</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GS2404290628</t>
+          <t>GS2405210048</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TH244U0628-J022</t>
+          <t>TH245L0048-J022</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS2404290630</t>
+          <t>GS2405210050</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PA244U0630-J022</t>
+          <t>PA245L0050-J022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GS2404290626A002</t>
+          <t>GS2405210046A002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>244U0626</t>
+          <t>245L0046</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YBCL2024042900001</t>
+          <t>YBCL2024052100001</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GS2404290626A001</t>
+          <t>GS2405210046A001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>244U0626</t>
+          <t>245L0046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2024042900001</t>
+          <t>YBCL2024052100001</t>
         </is>
       </c>
     </row>
